--- a/2017_dengue_extracted.xlsx
+++ b/2017_dengue_extracted.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederik/Documents/GitHub/Projekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F851ECDA-2CDA-1143-8F91-3F1AEBE172FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6816"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="6820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
-    <t>Reportingareas</t>
-  </si>
-  <si>
     <t>Jan</t>
   </si>
   <si>
@@ -294,12 +292,15 @@
   </si>
   <si>
     <t>Yala</t>
+  </si>
+  <si>
+    <t>Reporting_areas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -348,7 +349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -633,63 +634,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29"/>
     <col min="2" max="13" width="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1">
         <v>4</v>
@@ -728,9 +727,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1">
         <v>9</v>
@@ -769,9 +768,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1">
         <v>394</v>
@@ -810,9 +809,9 @@
         <v>858</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1">
         <v>211</v>
@@ -851,9 +850,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1">
         <v>11</v>
@@ -892,9 +891,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1">
         <v>16</v>
@@ -933,9 +932,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1">
         <v>4</v>
@@ -974,9 +973,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1">
         <v>19</v>
@@ -1015,9 +1014,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1">
         <v>6</v>
@@ -1056,9 +1055,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
         <v>46</v>
@@ -1097,9 +1096,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1">
         <v>15</v>
@@ -1138,9 +1137,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1">
         <v>38</v>
@@ -1179,9 +1178,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="1">
         <v>15</v>
@@ -1220,9 +1219,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="1">
         <v>25</v>
@@ -1261,9 +1260,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1">
         <v>4</v>
@@ -1302,9 +1301,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -1343,9 +1342,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1">
         <v>9</v>
@@ -1384,9 +1383,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" s="1">
         <v>15</v>
@@ -1425,9 +1424,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="1">
         <v>6</v>
@@ -1466,9 +1465,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="1">
         <v>3</v>
@@ -1507,9 +1506,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="1">
         <v>7</v>
@@ -1548,9 +1547,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="1">
         <v>12</v>
@@ -1589,9 +1588,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="1">
         <v>3</v>
@@ -1630,9 +1629,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" s="1">
         <v>13</v>
@@ -1671,9 +1670,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" s="1">
         <v>4</v>
@@ -1712,9 +1711,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
@@ -1753,9 +1752,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="1">
         <v>25</v>
@@ -1794,9 +1793,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -1835,9 +1834,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" s="1">
         <v>38</v>
@@ -1876,9 +1875,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="1">
         <v>12</v>
@@ -1917,9 +1916,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" s="1">
         <v>234</v>
@@ -1958,9 +1957,9 @@
         <v>199</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33" s="1">
         <v>12</v>
@@ -1999,9 +1998,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B34" s="1">
         <v>268</v>
@@ -2040,9 +2039,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" s="1">
         <v>1</v>
@@ -2081,9 +2080,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B36" s="1">
         <v>4</v>
@@ -2122,9 +2121,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="1">
         <v>41</v>
@@ -2163,9 +2162,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="1">
         <v>21</v>
@@ -2204,9 +2203,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="1">
         <v>18</v>
@@ -2245,9 +2244,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B40" s="1">
         <v>349</v>
@@ -2286,9 +2285,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B41" s="1">
         <v>18</v>
@@ -2327,9 +2326,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B42" s="1">
         <v>194</v>
@@ -2368,9 +2367,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B43" s="1">
         <v>0</v>
@@ -2409,9 +2408,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B44" s="1">
         <v>2</v>
@@ -2450,9 +2449,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="1">
         <v>40</v>
@@ -2491,9 +2490,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B46" s="1">
         <v>7</v>
@@ -2532,9 +2531,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B47" s="1">
         <v>15</v>
@@ -2573,9 +2572,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
@@ -2614,9 +2613,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B49" s="1">
         <v>35</v>
@@ -2655,9 +2654,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="1">
         <v>19</v>
@@ -2696,9 +2695,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" s="1">
         <v>22</v>
@@ -2737,9 +2736,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B52" s="1">
         <v>10</v>
@@ -2778,9 +2777,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B53" s="1">
         <v>16</v>
@@ -2819,9 +2818,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" s="1">
         <v>29</v>
@@ -2860,9 +2859,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55" s="1">
         <v>16</v>
@@ -2901,9 +2900,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B56" s="1">
         <v>1</v>
@@ -2942,9 +2941,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B57" s="1">
         <v>5</v>
@@ -2983,9 +2982,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B58" s="1">
         <v>49</v>
@@ -3024,9 +3023,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B59" s="1">
         <v>12</v>
@@ -3065,9 +3064,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B60" s="1">
         <v>4</v>
@@ -3106,9 +3105,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B61" s="1">
         <v>18</v>
@@ -3147,9 +3146,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B62" s="1">
         <v>8</v>
@@ -3188,9 +3187,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="1">
         <v>19</v>
@@ -3229,9 +3228,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B64" s="1">
         <v>0</v>
@@ -3270,9 +3269,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B65" s="1">
         <v>887</v>
@@ -3311,9 +3310,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B66" s="1">
         <v>1</v>
@@ -3352,9 +3351,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B67" s="1">
         <v>13</v>
@@ -3393,9 +3392,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B68" s="1">
         <v>83</v>
@@ -3434,9 +3433,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="1">
         <v>34</v>
@@ -3475,9 +3474,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B70" s="1">
         <v>9</v>
@@ -3516,9 +3515,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B71" s="1">
         <v>28</v>
@@ -3557,9 +3556,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B72" s="1">
         <v>6</v>
@@ -3598,9 +3597,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" s="1">
         <v>12</v>
@@ -3639,9 +3638,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B74" s="1">
         <v>5</v>
@@ -3680,9 +3679,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B75" s="1">
         <v>2</v>
@@ -3721,9 +3720,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B76" s="1">
         <v>2</v>
@@ -3762,9 +3761,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B77" s="1">
         <v>83</v>
@@ -3803,9 +3802,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B78" s="1">
         <v>0</v>
@@ -3845,7 +3844,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:M78">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M78">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2017_dengue_extracted.xlsx
+++ b/2017_dengue_extracted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederik/Documents/GitHub/Projekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2db956eb42fcc03/Dokumente/GitHub/topic04_team04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F851ECDA-2CDA-1143-8F91-3F1AEBE172FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{F851ECDA-2CDA-1143-8F91-3F1AEBE172FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61C9CA49-F78D-4609-8F53-3F5D2978916E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="6820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -294,7 +294,7 @@
     <t>Yala</t>
   </si>
   <si>
-    <t>Reporting_areas</t>
+    <t>Reporting areas</t>
   </si>
 </sst>
 </file>
@@ -357,7 +357,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -639,13 +639,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29"/>
     <col min="2" max="13" width="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
@@ -686,7 +686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -768,7 +768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -809,7 +809,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
@@ -850,7 +850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>66</v>
       </c>
@@ -891,7 +891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
@@ -932,7 +932,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -973,7 +973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>67</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>75</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>55</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>76</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>60</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>71</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>68</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>77</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>17</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>82</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>62</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>63</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>83</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>78</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>84</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>18</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>28</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>19</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>79</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>42</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>80</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>43</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>58</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>52</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>64</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>53</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>44</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>45</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>37</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>85</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>72</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>38</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>86</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>22</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>46</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>81</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>23</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>87</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>54</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>29</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>24</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>88</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>74</v>
       </c>

--- a/2017_dengue_extracted.xlsx
+++ b/2017_dengue_extracted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2db956eb42fcc03/Dokumente/GitHub/topic04_team04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{F851ECDA-2CDA-1143-8F91-3F1AEBE172FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61C9CA49-F78D-4609-8F53-3F5D2978916E}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F851ECDA-2CDA-1143-8F91-3F1AEBE172FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2B3C2DA-D1BD-45FF-B111-AE48B8C56A52}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -294,7 +294,7 @@
     <t>Yala</t>
   </si>
   <si>
-    <t>Reporting areas</t>
+    <t>Reporting Areas</t>
   </si>
 </sst>
 </file>
@@ -370,6 +370,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/2017_dengue_extracted.xlsx
+++ b/2017_dengue_extracted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2db956eb42fcc03/Dokumente/GitHub/topic04_team04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F851ECDA-2CDA-1143-8F91-3F1AEBE172FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2B3C2DA-D1BD-45FF-B111-AE48B8C56A52}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{F851ECDA-2CDA-1143-8F91-3F1AEBE172FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{645740A7-6AE8-4C85-AC60-9BE9A88341AD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -294,7 +294,7 @@
     <t>Yala</t>
   </si>
   <si>
-    <t>Reporting Areas</t>
+    <t>Reporting areas</t>
   </si>
 </sst>
 </file>

--- a/2017_dengue_extracted.xlsx
+++ b/2017_dengue_extracted.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2db956eb42fcc03/Dokumente/GitHub/topic04_team04/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_fiona\Info\topic04_team04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{F851ECDA-2CDA-1143-8F91-3F1AEBE172FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{645740A7-6AE8-4C85-AC60-9BE9A88341AD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,18 +41,9 @@
     <t>May</t>
   </si>
   <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
     <t>Aug</t>
   </si>
   <si>
-    <t>Sept</t>
-  </si>
-  <si>
     <t>Oct</t>
   </si>
   <si>
@@ -294,13 +284,22 @@
     <t>Yala</t>
   </si>
   <si>
-    <t>Reporting areas</t>
+    <t>Reporting_areas</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Sep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -357,7 +356,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -638,20 +637,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7890625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="29"/>
     <col min="2" max="13" width="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="19.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -669,30 +670,30 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1">
         <v>4</v>
@@ -731,9 +732,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1">
         <v>9</v>
@@ -772,9 +773,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1">
         <v>394</v>
@@ -813,9 +814,9 @@
         <v>858</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B5" s="1">
         <v>211</v>
@@ -854,9 +855,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1">
         <v>11</v>
@@ -895,9 +896,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1">
         <v>16</v>
@@ -936,9 +937,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1">
         <v>4</v>
@@ -977,9 +978,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1">
         <v>19</v>
@@ -1018,9 +1019,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1">
         <v>6</v>
@@ -1059,9 +1060,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>46</v>
@@ -1100,9 +1101,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>15</v>
@@ -1141,9 +1142,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1">
         <v>38</v>
@@ -1182,9 +1183,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B14" s="1">
         <v>15</v>
@@ -1223,9 +1224,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1">
         <v>25</v>
@@ -1264,9 +1265,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1">
         <v>4</v>
@@ -1305,9 +1306,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -1346,9 +1347,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B18" s="1">
         <v>9</v>
@@ -1387,9 +1388,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B19" s="1">
         <v>15</v>
@@ -1428,9 +1429,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1">
         <v>6</v>
@@ -1469,9 +1470,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1">
         <v>3</v>
@@ -1510,9 +1511,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B22" s="1">
         <v>7</v>
@@ -1551,9 +1552,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1">
         <v>12</v>
@@ -1592,9 +1593,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B24" s="1">
         <v>3</v>
@@ -1633,9 +1634,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B25" s="1">
         <v>13</v>
@@ -1674,9 +1675,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B26" s="1">
         <v>4</v>
@@ -1715,9 +1716,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
@@ -1756,9 +1757,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B28" s="1">
         <v>25</v>
@@ -1797,9 +1798,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -1838,9 +1839,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B30" s="1">
         <v>38</v>
@@ -1879,9 +1880,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B31" s="1">
         <v>12</v>
@@ -1920,9 +1921,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B32" s="1">
         <v>234</v>
@@ -1961,9 +1962,9 @@
         <v>199</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B33" s="1">
         <v>12</v>
@@ -2002,9 +2003,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B34" s="1">
         <v>268</v>
@@ -2043,9 +2044,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B35" s="1">
         <v>1</v>
@@ -2084,9 +2085,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B36" s="1">
         <v>4</v>
@@ -2125,9 +2126,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B37" s="1">
         <v>41</v>
@@ -2166,9 +2167,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B38" s="1">
         <v>21</v>
@@ -2207,9 +2208,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B39" s="1">
         <v>18</v>
@@ -2248,9 +2249,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B40" s="1">
         <v>349</v>
@@ -2289,9 +2290,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B41" s="1">
         <v>18</v>
@@ -2330,9 +2331,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B42" s="1">
         <v>194</v>
@@ -2371,9 +2372,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B43" s="1">
         <v>0</v>
@@ -2412,9 +2413,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B44" s="1">
         <v>2</v>
@@ -2453,9 +2454,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B45" s="1">
         <v>40</v>
@@ -2494,9 +2495,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B46" s="1">
         <v>7</v>
@@ -2535,9 +2536,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B47" s="1">
         <v>15</v>
@@ -2576,9 +2577,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
@@ -2617,9 +2618,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B49" s="1">
         <v>35</v>
@@ -2658,9 +2659,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B50" s="1">
         <v>19</v>
@@ -2699,9 +2700,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B51" s="1">
         <v>22</v>
@@ -2740,9 +2741,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B52" s="1">
         <v>10</v>
@@ -2781,9 +2782,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B53" s="1">
         <v>16</v>
@@ -2822,9 +2823,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B54" s="1">
         <v>29</v>
@@ -2863,9 +2864,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B55" s="1">
         <v>16</v>
@@ -2904,9 +2905,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B56" s="1">
         <v>1</v>
@@ -2945,9 +2946,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B57" s="1">
         <v>5</v>
@@ -2986,9 +2987,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B58" s="1">
         <v>49</v>
@@ -3027,9 +3028,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B59" s="1">
         <v>12</v>
@@ -3068,9 +3069,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B60" s="1">
         <v>4</v>
@@ -3109,9 +3110,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B61" s="1">
         <v>18</v>
@@ -3150,9 +3151,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B62" s="1">
         <v>8</v>
@@ -3191,9 +3192,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B63" s="1">
         <v>19</v>
@@ -3232,9 +3233,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B64" s="1">
         <v>0</v>
@@ -3273,9 +3274,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B65" s="1">
         <v>887</v>
@@ -3314,9 +3315,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B66" s="1">
         <v>1</v>
@@ -3355,9 +3356,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B67" s="1">
         <v>13</v>
@@ -3396,9 +3397,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B68" s="1">
         <v>83</v>
@@ -3437,9 +3438,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B69" s="1">
         <v>34</v>
@@ -3478,9 +3479,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B70" s="1">
         <v>9</v>
@@ -3519,9 +3520,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B71" s="1">
         <v>28</v>
@@ -3560,9 +3561,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B72" s="1">
         <v>6</v>
@@ -3601,9 +3602,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B73" s="1">
         <v>12</v>
@@ -3642,9 +3643,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B74" s="1">
         <v>5</v>
@@ -3683,9 +3684,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B75" s="1">
         <v>2</v>
@@ -3724,9 +3725,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B76" s="1">
         <v>2</v>
@@ -3765,9 +3766,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B77" s="1">
         <v>83</v>
@@ -3806,9 +3807,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B78" s="1">
         <v>0</v>
@@ -3848,7 +3849,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M78">
+  <sortState ref="A2:M78">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
